--- a/Project Outputs for Twintig-FCC-Metacarpal-RA/BOM/Bill of Materials-Twintig-FCC-Metacarpal-RA.xlsx
+++ b/Project Outputs for Twintig-FCC-Metacarpal-RA/BOM/Bill of Materials-Twintig-FCC-Metacarpal-RA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyFiles\x-io\Services\MICA Lab\Twintig\Twintig-FCC-Metacarpal-RA\Project Outputs for Twintig-FCC-Metacarpal-RA\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B26C3EAD-6FDF-401B-8FAE-77B481A957AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F342E611-D5B8-43DA-AF28-1E043C2A276B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24890" yWindow="250" windowWidth="24600" windowHeight="17390" xr2:uid="{9137E4B8-A89C-4399-8D33-3E15A4B76DB5}"/>
+    <workbookView xWindow="1650" yWindow="6860" windowWidth="15000" windowHeight="13120" xr2:uid="{965BE32E-0D04-4B35-A448-6194AC517B86}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-Twintig-FCC-M" sheetId="1" r:id="rId1"/>
@@ -430,7 +430,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C492CC36-6F93-4D2F-B12A-B90AD81FD268}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8CBCDC1-C9B7-4CA7-B369-394D2D6FF270}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
